--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HoangSang17Th\OneDrive\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Elearning_2021\Network Admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3C3FE1D-F974-46A5-9461-717CB5099A47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6079201E-8595-4AFD-B4BE-88648313897C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10296" yWindow="636" windowWidth="17280" windowHeight="8880" xr2:uid="{347CB0AA-EA83-4BE9-8096-24532D2BB198}"/>
+    <workbookView xWindow="5808" yWindow="5580" windowWidth="16056" windowHeight="8880" xr2:uid="{6774D763-5AFB-4BFB-81F3-FEDEF987C1AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,114 +32,237 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
-  <si>
-    <t>FirstName</t>
-  </si>
-  <si>
-    <t>LastName</t>
-  </si>
-  <si>
-    <t>Logon Username</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Container</t>
-  </si>
-  <si>
-    <t>phamhoangsang.tech/PowerShellTest/FirstTest</t>
-  </si>
-  <si>
-    <t>Hồ Trần Thục</t>
-  </si>
-  <si>
-    <t>Nguyễn Trần Lan</t>
-  </si>
-  <si>
-    <t>Đào Thị Mỹ</t>
-  </si>
-  <si>
-    <t>Nguyễn Tiên</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Thùy</t>
-  </si>
-  <si>
-    <t>Đinh Thị Hương</t>
-  </si>
-  <si>
-    <t>Trần Thị</t>
-  </si>
-  <si>
-    <t>Phạm Thị Thu</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Khánh</t>
-  </si>
-  <si>
-    <t>An</t>
-  </si>
-  <si>
-    <t>Anh</t>
-  </si>
-  <si>
-    <t>ân</t>
-  </si>
-  <si>
-    <t>Cảnh</t>
-  </si>
-  <si>
-    <t>Diễm</t>
-  </si>
-  <si>
-    <t>Hằng</t>
-  </si>
-  <si>
-    <t>Phượng</t>
-  </si>
-  <si>
-    <t>Dung</t>
-  </si>
-  <si>
-    <t>Quỳnh</t>
-  </si>
-  <si>
-    <t>Thùy</t>
-  </si>
-  <si>
-    <t>httta</t>
-  </si>
-  <si>
-    <t>ntla</t>
-  </si>
-  <si>
-    <t>dtma</t>
-  </si>
-  <si>
-    <t>ntc</t>
-  </si>
-  <si>
-    <t>ntd</t>
-  </si>
-  <si>
-    <t>ntth</t>
-  </si>
-  <si>
-    <t>dthp</t>
-  </si>
-  <si>
-    <t>ttd</t>
-  </si>
-  <si>
-    <t>pttq</t>
-  </si>
-  <si>
-    <t>ntkt</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="77">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>displayname</t>
+  </si>
+  <si>
+    <t>office</t>
+  </si>
+  <si>
+    <t>ou</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>department</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>Userprincipalname</t>
+  </si>
+  <si>
+    <t>samaccountname</t>
+  </si>
+  <si>
+    <t>sang1</t>
+  </si>
+  <si>
+    <t>sang2</t>
+  </si>
+  <si>
+    <t>sang3</t>
+  </si>
+  <si>
+    <t>sang4</t>
+  </si>
+  <si>
+    <t>sang5</t>
+  </si>
+  <si>
+    <t>sang6</t>
+  </si>
+  <si>
+    <t>sang7</t>
+  </si>
+  <si>
+    <t>sang8</t>
+  </si>
+  <si>
+    <t>sang9</t>
+  </si>
+  <si>
+    <t>sang10</t>
+  </si>
+  <si>
+    <t>sang11</t>
+  </si>
+  <si>
+    <t>sang12</t>
+  </si>
+  <si>
+    <t>sang13</t>
+  </si>
+  <si>
+    <t>sang14</t>
+  </si>
+  <si>
+    <t>sang15</t>
+  </si>
+  <si>
+    <t>sang</t>
+  </si>
+  <si>
+    <t>sang_1</t>
+  </si>
+  <si>
+    <t>sang_2</t>
+  </si>
+  <si>
+    <t>sang_3</t>
+  </si>
+  <si>
+    <t>sang_4</t>
+  </si>
+  <si>
+    <t>sang_5</t>
+  </si>
+  <si>
+    <t>sang_6</t>
+  </si>
+  <si>
+    <t>sang_7</t>
+  </si>
+  <si>
+    <t>sang_8</t>
+  </si>
+  <si>
+    <t>sang_9</t>
+  </si>
+  <si>
+    <t>sang_10</t>
+  </si>
+  <si>
+    <t>sang_11</t>
+  </si>
+  <si>
+    <t>sang_12</t>
+  </si>
+  <si>
+    <t>sang_13</t>
+  </si>
+  <si>
+    <t>sang_14</t>
+  </si>
+  <si>
+    <t>sang_15</t>
+  </si>
+  <si>
+    <t>Aplus</t>
+  </si>
+  <si>
+    <t>7Th/DaNang/Law</t>
+  </si>
+  <si>
+    <t>123qwe!@#</t>
+  </si>
+  <si>
+    <t>BOD</t>
+  </si>
+  <si>
+    <t>Hello sang 1</t>
+  </si>
+  <si>
+    <t>Hello sang 2</t>
+  </si>
+  <si>
+    <t>Hello sang 3</t>
+  </si>
+  <si>
+    <t>Hello sang 4</t>
+  </si>
+  <si>
+    <t>Hello sang 5</t>
+  </si>
+  <si>
+    <t>Hello sang 6</t>
+  </si>
+  <si>
+    <t>Hello sang 7</t>
+  </si>
+  <si>
+    <t>Hello sang 8</t>
+  </si>
+  <si>
+    <t>Hello sang 9</t>
+  </si>
+  <si>
+    <t>Hello sang 10</t>
+  </si>
+  <si>
+    <t>Hello sang 11</t>
+  </si>
+  <si>
+    <t>Hello sang 12</t>
+  </si>
+  <si>
+    <t>Hello sang 13</t>
+  </si>
+  <si>
+    <t>Hello sang 14</t>
+  </si>
+  <si>
+    <t>Hello sang 15</t>
+  </si>
+  <si>
+    <t>sang1@gmail.com</t>
+  </si>
+  <si>
+    <t>sang2@gmail.com</t>
+  </si>
+  <si>
+    <t>sang3@gmail.com</t>
+  </si>
+  <si>
+    <t>sang4@gmail.com</t>
+  </si>
+  <si>
+    <t>sang5@gmail.com</t>
+  </si>
+  <si>
+    <t>sang6@gmail.com</t>
+  </si>
+  <si>
+    <t>sang7@gmail.com</t>
+  </si>
+  <si>
+    <t>sang8@gmail.com</t>
+  </si>
+  <si>
+    <t>sang9@gmail.com</t>
+  </si>
+  <si>
+    <t>sang10@gmail.com</t>
+  </si>
+  <si>
+    <t>sang11@gmail.com</t>
+  </si>
+  <si>
+    <t>sang12@gmail.com</t>
+  </si>
+  <si>
+    <t>sang13@gmail.com</t>
+  </si>
+  <si>
+    <t>sang14@gmail.com</t>
+  </si>
+  <si>
+    <t>sang15@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -155,16 +278,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF333333"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -184,15 +309,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -504,221 +630,604 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D7595BB-9D4C-473B-B0AE-C5510D8235E2}">
-  <dimension ref="A1:E11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6573CD91-756B-441D-91CB-F1117F6FFF01}">
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="A1:E11"/>
+      <selection activeCell="N3" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" customWidth="1"/>
-    <col min="2" max="2" width="15.5546875" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" customWidth="1"/>
-    <col min="4" max="4" width="28.21875" customWidth="1"/>
-    <col min="5" max="5" width="36.109375" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+    <col min="12" max="12" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" t="s">
+        <v>46</v>
+      </c>
+      <c r="J9" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" t="s">
+        <v>46</v>
+      </c>
+      <c r="J10" t="s">
+        <v>55</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I11" t="s">
+        <v>46</v>
+      </c>
+      <c r="J11" t="s">
+        <v>56</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I12" t="s">
+        <v>46</v>
+      </c>
+      <c r="J12" t="s">
+        <v>57</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I13" t="s">
+        <v>46</v>
+      </c>
+      <c r="J13" t="s">
+        <v>58</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I14" t="s">
+        <v>46</v>
+      </c>
+      <c r="J14" t="s">
+        <v>59</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I15" t="s">
+        <v>46</v>
+      </c>
+      <c r="J15" t="s">
+        <v>60</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="1" t="str">
-        <f>A2&amp;" "&amp;B2</f>
-        <v>Hồ Trần Thục An</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="1" t="str">
-        <f t="shared" ref="D3:D11" si="0">A3&amp;" "&amp;B3</f>
-        <v>Nguyễn Trần Lan Anh</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Đào Thị Mỹ ân</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Nguyễn Tiên Cảnh</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Nguyễn Thị Diễm</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Nguyễn Thị Thùy Hằng</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Đinh Thị Hương Phượng</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Trần Thị Dung</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Phạm Thị Thu Quỳnh</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16">
         <v>15</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Nguyễn Thị Khánh Thùy</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>5</v>
+      <c r="E16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" t="s">
+        <v>44</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I16" t="s">
+        <v>46</v>
+      </c>
+      <c r="J16" t="s">
+        <v>61</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H3:H16" r:id="rId1" display="123qwe!@#" xr:uid="{4D54168E-C93E-4558-8B52-42BA55FDC989}"/>
+    <hyperlink ref="H2" r:id="rId2" xr:uid="{B00DD623-38EB-4A14-A8AF-D3514866EC80}"/>
+    <hyperlink ref="K2" r:id="rId3" xr:uid="{ED92D0E1-ADC5-4BEE-8490-7C61EBC9316C}"/>
+    <hyperlink ref="K3" r:id="rId4" xr:uid="{D2D6425F-D36C-417B-84B5-90C84C8711A5}"/>
+    <hyperlink ref="K4" r:id="rId5" xr:uid="{A939B18A-C522-4FEE-9C54-6F26B3A9DE76}"/>
+    <hyperlink ref="K5" r:id="rId6" xr:uid="{80151949-83CF-40C9-9EFE-EDB884E3F4CF}"/>
+    <hyperlink ref="K6:K16" r:id="rId7" display="sang@gmail.com" xr:uid="{450694E6-6834-4FD3-90FC-77E0F596EF9E}"/>
+    <hyperlink ref="K6" r:id="rId8" xr:uid="{4ADC5998-8183-457E-82AC-65D9DD2504EB}"/>
+    <hyperlink ref="K7" r:id="rId9" xr:uid="{CAB19A1B-21F7-44D6-9E1C-B424F89B5F8D}"/>
+    <hyperlink ref="K8" r:id="rId10" xr:uid="{2976943F-36A8-46B9-938E-8CAB00B8E348}"/>
+    <hyperlink ref="K9" r:id="rId11" xr:uid="{C0F2028C-9099-469E-8225-DE8C25198832}"/>
+    <hyperlink ref="K10" r:id="rId12" xr:uid="{90C8D42F-8226-4FA1-9B90-528AFDF6F4E3}"/>
+    <hyperlink ref="K11" r:id="rId13" xr:uid="{ECC03614-CC7A-4ECB-A6EB-9C73AF1E2D69}"/>
+    <hyperlink ref="K12" r:id="rId14" xr:uid="{5E16B8C7-157D-48B1-940C-BEE6D5FF5621}"/>
+    <hyperlink ref="K13" r:id="rId15" xr:uid="{E100574D-75AD-4BBF-BCFE-CD26F7966FCA}"/>
+    <hyperlink ref="K14" r:id="rId16" xr:uid="{10B647A7-888F-4131-8A57-587A1A2C4C81}"/>
+    <hyperlink ref="K15" r:id="rId17" xr:uid="{170AE791-5F0A-4191-8DED-3A956D8CFD8D}"/>
+    <hyperlink ref="K16" r:id="rId18" xr:uid="{C3ED647D-5A49-4F14-ADF4-1015F6C41865}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>